--- a/model/ModelData/PEEP10/RR12/C_T0.01/PaO23/Data/Data.xlsx
+++ b/model/ModelData/PEEP10/RR12/C_T0.01/PaO23/Data/Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Time</t>
   </si>
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>Data4</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Qa(Airflow)</t>
   </si>
 </sst>
 </file>
@@ -100,19 +115,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
